--- a/Planning/Final_Project_Tracker.xlsx
+++ b/Planning/Final_Project_Tracker.xlsx
@@ -1,11 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArunReddy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7C365-C1D5-4BE0-A0EA-ABA0582126D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
-    <workbookView xWindow="2720" yWindow="2040" windowWidth="33580" windowHeight="16200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="2040" windowWidth="33576" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,13 @@
     <definedName name="RiskLevelList">OFFSET(Config!$I$7,0,0,COUNTA(Config!$I$7:$I$20),1)</definedName>
     <definedName name="StatusList">OFFSET(Config!$G$7,0,0,COUNTA(Config!$G$7:$G$100),1)</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -214,10 +225,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="ddd\ d\-mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="ddd\ d\-mmm\-yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -294,7 +305,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,7 +314,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -311,53 +322,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="ddd\ d\-mmm\-yy"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -443,6 +408,24 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="ddd\ d\-mmm\-yy"/>
     </dxf>
     <dxf>
       <font>
@@ -584,26 +567,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:K15" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B3:K15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:K15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B3:K15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Task ID" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID" dataDxfId="9">
       <calculatedColumnFormula>B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="TaskName" dataDxfId="12"/>
-    <tableColumn id="3" name="Category" dataDxfId="11"/>
-    <tableColumn id="4" name="Date Added" dataDxfId="10"/>
-    <tableColumn id="5" name="Due Date" dataDxfId="4"/>
-    <tableColumn id="6" name="Owner" dataDxfId="9"/>
-    <tableColumn id="7" name="Owner2" dataDxfId="8"/>
-    <tableColumn id="8" name="Status" dataDxfId="7"/>
-    <tableColumn id="9" name="Risk Level" dataDxfId="6"/>
-    <tableColumn id="10" name="Detail" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TaskName" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Date Added" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due Date" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Owner" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Owner2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Risk Level" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Detail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,24 +881,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -920,13 +906,13 @@
     <col min="11" max="11" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="2" customFormat="1" ht="50.25" customHeight="1">
+    <row r="1" spans="2:11" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="2" customFormat="1" ht="13"/>
-    <row r="3" spans="2:11" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row r="2" spans="2:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -958,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="4" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -986,7 +972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="50" customHeight="1">
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <f>B4+1</f>
         <v>2</v>
@@ -1014,7 +1000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <f>B5+1</f>
         <v>3</v>
@@ -1044,7 +1030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="2:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <f>B6+1</f>
         <v>4</v>
@@ -1072,7 +1058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="2" customFormat="1" ht="79.5" customHeight="1">
+    <row r="8" spans="2:11" s="2" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f>B7+1</f>
         <v>5</v>
@@ -1091,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>26</v>
@@ -1100,7 +1086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="2" customFormat="1" ht="111.75" customHeight="1">
+    <row r="9" spans="2:11" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -1129,7 +1115,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="2" customFormat="1" ht="41" customHeight="1">
+    <row r="10" spans="2:11" s="2" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <f>B9+1</f>
         <v>7</v>
@@ -1157,7 +1143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="63" customHeight="1">
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -1189,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="2" customFormat="1" ht="38.25" customHeight="1">
+    <row r="12" spans="2:11" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -1216,7 +1202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="2" customFormat="1" ht="45" customHeight="1">
+    <row r="13" spans="2:11" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f>B12+1</f>
         <v>10</v>
@@ -1244,7 +1230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" ht="66" customHeight="1">
+    <row r="14" spans="2:11" s="2" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <f>B13+1</f>
         <v>11</v>
@@ -1277,7 +1263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="2" customFormat="1" ht="28" customHeight="1">
+    <row r="15" spans="2:11" s="2" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>12</v>
       </c>
@@ -1307,41 +1293,41 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="13"/>
-    <row r="17" s="2" customFormat="1" ht="13"/>
-    <row r="18" s="2" customFormat="1" ht="13"/>
-    <row r="19" s="2" customFormat="1" ht="13"/>
-    <row r="20" s="2" customFormat="1" ht="13"/>
-    <row r="21" s="2" customFormat="1" ht="13"/>
-    <row r="22" s="2" customFormat="1" ht="13"/>
-    <row r="23" s="2" customFormat="1" ht="13"/>
-    <row r="24" s="2" customFormat="1" ht="13"/>
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="J4:J15">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Amber"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Grey"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:H15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OwnerList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I15" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>StatusList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>RiskLevelList</formula1>
     </dataValidation>
   </dataValidations>
@@ -1360,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1370,7 +1356,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
@@ -1378,7 +1364,7 @@
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" ht="18">
+    <row r="6" spans="3:9" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -1434,7 +1420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1459,27 +1445,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="3:9">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="3:9">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:9">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>33</v>
       </c>
@@ -1499,13 +1485,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
